--- a/swift-wheels-hub-reactive-agency/src/test/resources/file/Cars.xlsx
+++ b/swift-wheels-hub-reactive-agency/src/test/resources/file/Cars.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\swift-wheels-hub-reactive\swift-wheels-hub-reactive-agency\src\test\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710436C4-7826-4D7B-9993-36D02421F54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DE4B6C-D0B2-4776-8DF3-040E8F25C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MODEL</t>
   </si>
@@ -45,9 +45,6 @@
     <t>CAR STATUS</t>
   </si>
   <si>
-    <t>URL OF IMAGE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> BODY TYPE</t>
   </si>
   <si>
@@ -63,22 +60,19 @@
     <t>Volkswagen</t>
   </si>
   <si>
-    <t>Arteon</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>Sedan</t>
-  </si>
-  <si>
     <t>Available</t>
   </si>
   <si>
-    <t>65072051d5d4531e66a0c00a</t>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Hatchback</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
   </si>
 </sst>
 </file>
@@ -137,6 +131,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2759901</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1973580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E904ED6-9EC5-C0B1-1743-1A4474BC1997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8237221" y="182881"/>
+          <a:ext cx="2759900" cy="1973579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,8 +465,9 @@
     <col min="6" max="6" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.21875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -429,10 +479,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -447,51 +497,49 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="2">
+        <v>270000</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2022</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2">
-        <v>100000</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>500</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/swift-wheels-hub-reactive-agency/src/test/resources/file/Cars.xlsx
+++ b/swift-wheels-hub-reactive-agency/src/test/resources/file/Cars.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\swift-wheels-hub-reactive\swift-wheels-hub-reactive-agency\src\test\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DE4B6C-D0B2-4776-8DF3-040E8F25C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C53140-D953-4516-8ADC-8DF11FCEFCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>MODEL</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>IMAGE</t>
+  </si>
+  <si>
+    <t>65072051d5d4531e66a0c00a</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
     <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="43.21875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -531,11 +534,11 @@
       <c r="H2" s="2">
         <v>500</v>
       </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/swift-wheels-hub-reactive-agency/src/test/resources/file/Cars.xlsx
+++ b/swift-wheels-hub-reactive-agency/src/test/resources/file/Cars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\swift-wheels-hub-reactive\swift-wheels-hub-reactive-agency\src\test\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C53140-D953-4516-8ADC-8DF11FCEFCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E7BE0C-6295-441E-9794-EAF4FB93CD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>MODEL</t>
   </si>
@@ -188,6 +188,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2759900" cy="1973579"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE313174-9A3B-4233-8938-2EA190B3CD0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8770621" y="182881"/>
+          <a:ext cx="2759900" cy="1973579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -454,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,8 +513,7 @@
     <col min="6" max="6" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="43.21875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -541,6 +585,38 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <v>270000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2">
+        <v>500</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/swift-wheels-hub-reactive-agency/src/test/resources/file/Cars.xlsx
+++ b/swift-wheels-hub-reactive-agency/src/test/resources/file/Cars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\swift-wheels-hub-reactive\swift-wheels-hub-reactive-agency\src\test\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E7BE0C-6295-441E-9794-EAF4FB93CD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49D47ED-492F-4D34-8559-37E275FC39FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>MODEL</t>
   </si>
@@ -188,51 +188,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2759900" cy="1973579"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE313174-9A3B-4233-8938-2EA190B3CD0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8770621" y="182881"/>
-          <a:ext cx="2759900" cy="1973579"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -499,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,38 +540,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
-        <v>270000</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2">
-        <v>500</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
